--- a/Price.xlsx
+++ b/Price.xlsx
@@ -26165,7 +26165,7 @@
     </r>
   </si>
   <si>
-    <t>19.02.22</t>
+    <t>20.02.22</t>
   </si>
 </sst>
 </file>
@@ -58705,7 +58705,7 @@
         <v>194</v>
       </c>
       <c r="G22" s="115">
-        <v>52.99</v>
+        <v>56.99</v>
       </c>
       <c r="H22" s="116" t="s">
         <v>2</v>
@@ -65016,7 +65016,7 @@
         <v>12.48</v>
       </c>
       <c r="H329" s="116" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I329" s="99"/>
       <c r="J329" s="19">

--- a/Price.xlsx
+++ b/Price.xlsx
@@ -26165,7 +26165,7 @@
     </r>
   </si>
   <si>
-    <t>20.02.22</t>
+    <t>22.02.22</t>
   </si>
 </sst>
 </file>
@@ -62982,10 +62982,10 @@
         <v>455</v>
       </c>
       <c r="G230" s="115">
-        <v>19.55</v>
+        <v>21.95</v>
       </c>
       <c r="H230" s="116" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I230" s="98"/>
       <c r="J230" s="19">
@@ -70592,7 +70592,7 @@
         <v>264</v>
       </c>
       <c r="G598" s="115">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="H598" s="116" t="s">
         <v>2</v>
@@ -70612,7 +70612,7 @@
         <v>265</v>
       </c>
       <c r="G599" s="115">
-        <v>3.99</v>
+        <v>4.99</v>
       </c>
       <c r="H599" s="116" t="s">
         <v>2</v>
